--- a/data/processed/3rd/MASTER_human-eval_3rd_DIFFS.xlsx
+++ b/data/processed/3rd/MASTER_human-eval_3rd_DIFFS.xlsx
@@ -10273,7 +10273,7 @@
         <v>34</v>
       </c>
       <c r="U119" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="V119"/>
       <c r="W119"/>
@@ -10349,7 +10349,7 @@
         <v>34</v>
       </c>
       <c r="U120" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="V120" t="s">
         <v>46</v>
@@ -10429,7 +10429,7 @@
         <v>34</v>
       </c>
       <c r="U121" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="V121" t="s">
         <v>32</v>
@@ -10511,7 +10511,7 @@
         <v>154</v>
       </c>
       <c r="U122" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="V122"/>
       <c r="W122"/>
@@ -10583,7 +10583,7 @@
         <v>34</v>
       </c>
       <c r="U123" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="V123" t="s">
         <v>46</v>
@@ -10661,7 +10661,7 @@
         <v>34</v>
       </c>
       <c r="U124" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="V124" t="s">
         <v>88</v>
@@ -10747,7 +10747,7 @@
         <v>155</v>
       </c>
       <c r="U125" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="V125" t="s">
         <v>46</v>
